--- a/medicine/Enfance/Françoise_Moreau/Françoise_Moreau.xlsx
+++ b/medicine/Enfance/Françoise_Moreau/Françoise_Moreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Moreau</t>
+          <t>Françoise_Moreau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Moreau, née en 1952 à Fay-de-Bretagne (Loire Inférieure), est une écrivaine et poétesse française[1]. Elle publie également pour la littérature d'enfance et de jeunesse et est couronnée de nombreux prix.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Moreau, née en 1952 à Fay-de-Bretagne (Loire Inférieure), est une écrivaine et poétesse française. Elle publie également pour la littérature d'enfance et de jeunesse et est couronnée de nombreux prix.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Moreau</t>
+          <t>Françoise_Moreau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Moreau fait des études de lettres[2]. Elle participe à la création de l'association 7 poètes en pays nantais[2]. Elle écrit pour Pomme d'Api et Les Belles Histoires chez Bayard Jeunesse[3]. Elle participe à la foire du livre de Bruxelles en 2023[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Moreau fait des études de lettres. Elle participe à la création de l'association 7 poètes en pays nantais. Elle écrit pour Pomme d'Api et Les Belles Histoires chez Bayard Jeunesse. Elle participe à la foire du livre de Bruxelles en 2023.
 Elle vit à Blain (Loire-Atlantique) depuis 1984.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Moreau</t>
+          <t>Françoise_Moreau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres et Publications[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eau-forte, L'Escarbille, 128p, 2001,  (ISBN 978-2913399181)
 Des gourmandises sur l’étagère, Collection Feux Follets, L'Escarbille, 2002 (nouvelle édition L’œil ébloui, 2021),  (ISBN 9782913399068)
@@ -555,14 +571,7 @@
 Le petit Français, Diabase, 151p, 2013,  (ISBN 978-2911438899)
 Vinyle face B, Diabase, 155p, 2015,  (ISBN 978-2372030076)
 Les dits de Nantes, L’œil ébloui, 84p, 2015,  (ISBN 978-2954143255)
-Oublié dans la rivière, L’œil ébloui, 100p, 2020,  (ISBN 978-2490364152)[4]
-Littérature jeunesse
-Le placard aux sorcières, Illustrations de David Parkins, Collection Les Belles Histoires, Bayard Jeunesse, 32p,  (ISBN 979-10-363-3647-8)
-Poésie et poèmes en prose
-Riches petites heures, À Contre-Silence, 1991
-Tout est bien, Echo-Optique/Siloë, 1996
-Au vent qui en voit d’autres, Moraines, 1997
-L’œil gauche de l’infante, Le chat qui tousse, 1999</t>
+Oublié dans la rivière, L’œil ébloui, 100p, 2020,  (ISBN 978-2490364152)</t>
         </is>
       </c>
     </row>
@@ -572,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Moreau</t>
+          <t>Françoise_Moreau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +596,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres et Publications[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le placard aux sorcières, Illustrations de David Parkins, Collection Les Belles Histoires, Bayard Jeunesse, 32p,  (ISBN 979-10-363-3647-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Françoise_Moreau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Moreau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres et Publications[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie et poèmes en prose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Riches petites heures, À Contre-Silence, 1991
+Tout est bien, Echo-Optique/Siloë, 1996
+Au vent qui en voit d’autres, Moraines, 1997
+L’œil gauche de l’infante, Le chat qui tousse, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Françoise_Moreau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7oise_Moreau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions[2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eau Forte (2001)
@@ -599,10 +685,10 @@
 Prix des écrivains bretons
 Prix du second roman des Lions Club, 2004
 Jamais de la vie (2007)
-Prix de la Ville de Carhaix 2008[5],[6]
+Prix de la Ville de Carhaix 2008,
 Des gourmandises sur l’étagère (2002)
 Prix Pelloutier  ville de Saint-Nazaire, 2007
-Prix Loin du marketing, attribué par le libraire nazairien Gérard Lambert-Ullman, 2012[7]
+Prix Loin du marketing, attribué par le libraire nazairien Gérard Lambert-Ullman, 2012
 </t>
         </is>
       </c>
